--- a/data/creative.xlsx
+++ b/data/creative.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7060" uniqueCount="1204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7503" uniqueCount="1281">
   <si>
     <t>Ид</t>
   </si>
@@ -3636,6 +3636,237 @@
   </si>
   <si>
     <t>1. Пьесы для чтения с листа. 2. Мелодии для подбора по слуху. 3. Простейшие мелодии для транспонирования. 4. Вопросы теста на знание музыкальных терминов.</t>
+  </si>
+  <si>
+    <t>"Вот на дворе дождь" Расшифровка</t>
+  </si>
+  <si>
+    <t>Русская увертюра муз. Н.Будашкин Аранжировка Д.Макушенко</t>
+  </si>
+  <si>
+    <t>"Осень не браните". Аранжировка</t>
+  </si>
+  <si>
+    <t>Корректировка образовательных программ</t>
+  </si>
+  <si>
+    <t>1. Целевой и организационный раздел ПП 2. Целевой и организационный раздел ОП, 3. Специальность ОП 4. ФОС Специальность ОП</t>
+  </si>
+  <si>
+    <t>1. ФОС Сольфеджио ПП 2. Сольфеджио ПП 3. Сольфеджио 7ОП</t>
+  </si>
+  <si>
+    <t>Составление требований и критериев оценки конкурса этюдов</t>
+  </si>
+  <si>
+    <t>1. Вокал ПП 2. ФОС Вокал ПП 3. Подбор и обобщение материалов методической литературы 4. Составление списка методической литературы</t>
+  </si>
+  <si>
+    <t>Составление образовательных программ</t>
+  </si>
+  <si>
+    <t>1. Основы дирижирования 2. ФОС Основы дирижирования 3. Хор ОП Инстр. 4. ФОС Хор ОП Инстр.</t>
+  </si>
+  <si>
+    <t>1. ПП 2. ОП</t>
+  </si>
+  <si>
+    <t>Боярищева</t>
+  </si>
+  <si>
+    <t>1. Концертмейстерский класс</t>
+  </si>
+  <si>
+    <t>ФОС Слушание музыки ОП, ПП</t>
+  </si>
+  <si>
+    <t>1. Элементарная теория музыки 2. Хор ОП</t>
+  </si>
+  <si>
+    <t>Подготовка материалов: «Навстречу VI Московскому открытому фестивалю юных исполнителей на балалайке и домре «Александр Цыганков и Валерий Зажигин приглашает»»</t>
+  </si>
+  <si>
+    <t>1. План-конспект 2. Презентация</t>
+  </si>
+  <si>
+    <t>Череповский</t>
+  </si>
+  <si>
+    <t>Виктор</t>
+  </si>
+  <si>
+    <t>Анатольевич</t>
+  </si>
+  <si>
+    <t>Слушание музыки ОП и ПП.</t>
+  </si>
+  <si>
+    <t>Зима студливая. Аренжировка</t>
+  </si>
+  <si>
+    <t>"Работа над интонацией в классе фортепиано". Методическая разработка.</t>
+  </si>
+  <si>
+    <t>Подготовка материалов к зачету по чтению с листа</t>
+  </si>
+  <si>
+    <t>1,2,3,4 классы - составление таблиц музыкальных терминов.  .</t>
+  </si>
+  <si>
+    <t>Целевой и организационный раздел "Орган" Программа учебного предмета "Орган" ФОС "Орган" Внесение изменений в ФОС ПП "Чтение с листа"</t>
+  </si>
+  <si>
+    <t>Корректировка образовательных программ и ФОС</t>
+  </si>
+  <si>
+    <t>Расшифровки "Вот на дворе дождь", "Ой, ты Ванька", "Стежки-дорожки"</t>
+  </si>
+  <si>
+    <t>В. Косма "Фантазия" на темы из кинофильмов партитура, аккомпанемент</t>
+  </si>
+  <si>
+    <t>В. Косма "Фантазия" на темы из кинофильмов Аранжировка, партии домры</t>
+  </si>
+  <si>
+    <t>"Така така та" муз.Joe Dassin Аранжировка</t>
+  </si>
+  <si>
+    <t>Расшифровки "А в Питере", "А у кота", "В лесу", "Ехал"</t>
+  </si>
+  <si>
+    <t>Весенняя закличка. Аранжировка</t>
+  </si>
+  <si>
+    <t>Блины. Шуточная народная песня. Аранжировка</t>
+  </si>
+  <si>
+    <t>Никольникова</t>
+  </si>
+  <si>
+    <t>Полина</t>
+  </si>
+  <si>
+    <t>И.Стравинский. Пастораль. Переложение для баритона и фортепиано</t>
+  </si>
+  <si>
+    <t>А.Лядов. "Коляда-маледа". Инструментовка</t>
+  </si>
+  <si>
+    <t>Camille Saint-Saens Royal March of the LION. Инструментовка</t>
+  </si>
+  <si>
+    <t>Катилися с горки сани. Проходная. Аранжировка</t>
+  </si>
+  <si>
+    <t>"Навстречу VI Московскому открытому конкурсу юных исполнителей на струнных народных инструментах имени Н.П. Будашкина", Презентация, материалы к презентации</t>
+  </si>
+  <si>
+    <t>«Загадай желание» «Wish upon a star» аранжировка и переложение для дуэта домр</t>
+  </si>
+  <si>
+    <t>"Кто же у нас умен" Костромская обл. Величальная. Аранжировка</t>
+  </si>
+  <si>
+    <t>"Таусень". Аранжировка.</t>
+  </si>
+  <si>
+    <t>Методическое сообщение "Распевание хорового коллектива. Комплекс упражнений. Элементарные навыки дыхания"</t>
+  </si>
+  <si>
+    <t>И. Стравинский. "Русская" Из балета «Петрушка» аранжировка</t>
+  </si>
+  <si>
+    <t>Составление примеров мелодий для подбора по слуху и транспонирования для промежуточной аттестации по учебному предмету «Чтение с листа» учащихся 1 – 4 классов дополнительной предпрофессиональной общеобразовательной программы в области музыкального искусства «Фортепиано» в 2021-22 учебном году</t>
+  </si>
+  <si>
+    <t>О методах работы в курсе музыкальной литературы и слушания музыки</t>
+  </si>
+  <si>
+    <t>Авторская методика, некоторые выдержки из практики</t>
+  </si>
+  <si>
+    <t>Трек-лист для 6 класса по русской музыкальной литературе 19 века</t>
+  </si>
+  <si>
+    <t>Обухов</t>
+  </si>
+  <si>
+    <t>Андреевич</t>
+  </si>
+  <si>
+    <t>FOOTPRINTS, FREDDIE FREELOADER. Аранжировки.</t>
+  </si>
+  <si>
+    <t>В. Маляров "Саратовские напевы" аранжировка</t>
+  </si>
+  <si>
+    <t>Составление вариантов примерных программ промежуточной и итоговой аттестации ОП</t>
+  </si>
+  <si>
+    <t>Корректировка программы учебного предмета Специальность ОП</t>
+  </si>
+  <si>
+    <t>Корректировка ФОС программы учебного предмета Специальность ОП</t>
+  </si>
+  <si>
+    <t>Корректировка программы и ФОС Орган ОП</t>
+  </si>
+  <si>
+    <t>STRAVINSKY! Аранжировка на темы Стравинского</t>
+  </si>
+  <si>
+    <t>Корректировка ФОС программы учебного предмета Музыкальная литература ПП</t>
+  </si>
+  <si>
+    <t>"Дуня" Частушки. Аранжировка</t>
+  </si>
+  <si>
+    <t>Внесение дополнений в программу учебного предмета и ФОС "Специальность и чтение с листа" ПП</t>
+  </si>
+  <si>
+    <t>"Вот пала,пала порошка". Аранжировка</t>
+  </si>
+  <si>
+    <t>Составление рабочей тетради по русской музыкальной литературе</t>
+  </si>
+  <si>
+    <t>"Гротеск и размышление" муз. Е.Тростянский, аранжировка</t>
+  </si>
+  <si>
+    <t>Корректировка программы учебного предмета "Хор" ПП</t>
+  </si>
+  <si>
+    <t>Корректировка программы учебного предмета Музыкальная литература ПП</t>
+  </si>
+  <si>
+    <t>Подготовка материалов к олимпиаде по музыкальной литературе для учащихся 4 классов</t>
+  </si>
+  <si>
+    <t>Зубкова</t>
+  </si>
+  <si>
+    <t>Любовь</t>
+  </si>
+  <si>
+    <t>Андреевна</t>
+  </si>
+  <si>
+    <t>Подготовка материалов к олимпиаде по слушанию музыки для учащихся 3 классов</t>
+  </si>
+  <si>
+    <t>Методическая работа для стенда: Классическая музыка в мультфильмах. "От Бетховена до Стравинского"</t>
+  </si>
+  <si>
+    <t>Подготовка материалов для публикации "О духовом отделе", "Класс тубы"</t>
+  </si>
+  <si>
+    <t>Методическая работа для стенда: "Сто лет гитары в картинках"</t>
+  </si>
+  <si>
+    <t>Методическая работа для стенда: "Детское хоровое пение. История, картинки, Хор с греческого "choros", коллектив людей, исполняющий вокальную музыку и латинского "chorus"- толпа, собрание.процесс творчества и обучения".</t>
+  </si>
+  <si>
+    <t>Методическая работа для стенда "Сто лет гитары в картинках" Быстрая эволюция гитары 1806-1860</t>
   </si>
 </sst>
 </file>
@@ -4047,10 +4278,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB1134"/>
+  <dimension ref="A1:AB1205"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D754" workbookViewId="0">
-      <selection sqref="A1:AB1134"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A751" sqref="A1:AB1205"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -45492,22 +45723,2751 @@
       <c r="L1134" s="2">
         <v>3</v>
       </c>
-      <c r="M1134" s="7"/>
-      <c r="N1134" s="7"/>
-      <c r="O1134" s="7"/>
-      <c r="P1134" s="7"/>
-      <c r="Q1134" s="7"/>
-      <c r="R1134" s="7"/>
-      <c r="S1134" s="7"/>
-      <c r="T1134" s="7"/>
-      <c r="U1134" s="7"/>
-      <c r="V1134" s="7"/>
-      <c r="W1134" s="7"/>
-      <c r="X1134" s="7"/>
-      <c r="Y1134" s="7"/>
-      <c r="Z1134" s="7"/>
-      <c r="AA1134" s="7"/>
-      <c r="AB1134" s="8"/>
+      <c r="AB1134" s="6"/>
+    </row>
+    <row r="1135" spans="1:28" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A1135" s="2">
+        <v>1157</v>
+      </c>
+      <c r="B1135" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1135" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1135" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E1135" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1135" s="2" t="s">
+        <v>1204</v>
+      </c>
+      <c r="G1135" s="2"/>
+      <c r="H1135" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I1135" s="3">
+        <v>44363</v>
+      </c>
+      <c r="J1135" s="2">
+        <v>0</v>
+      </c>
+      <c r="K1135" s="3">
+        <v>44348</v>
+      </c>
+      <c r="L1135" s="2">
+        <v>3</v>
+      </c>
+      <c r="AB1135" s="6"/>
+    </row>
+    <row r="1136" spans="1:28" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A1136" s="2">
+        <v>1158</v>
+      </c>
+      <c r="B1136" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1136" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1136" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1136" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1136" s="2" t="s">
+        <v>1205</v>
+      </c>
+      <c r="G1136" s="2"/>
+      <c r="H1136" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1136" s="3">
+        <v>44438</v>
+      </c>
+      <c r="J1136" s="2">
+        <v>0</v>
+      </c>
+      <c r="K1136" s="3">
+        <v>44440</v>
+      </c>
+      <c r="L1136" s="2">
+        <v>15</v>
+      </c>
+      <c r="M1136" s="3">
+        <v>44470</v>
+      </c>
+      <c r="N1136" s="2">
+        <v>15</v>
+      </c>
+      <c r="O1136" s="3">
+        <v>44501</v>
+      </c>
+      <c r="P1136" s="2">
+        <v>15</v>
+      </c>
+      <c r="Q1136" s="3">
+        <v>44531</v>
+      </c>
+      <c r="R1136" s="2">
+        <v>15</v>
+      </c>
+      <c r="AB1136" s="6"/>
+    </row>
+    <row r="1137" spans="1:28" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A1137" s="2">
+        <v>1159</v>
+      </c>
+      <c r="B1137" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1137" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1137" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1137" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1137" s="2" t="s">
+        <v>1206</v>
+      </c>
+      <c r="G1137" s="2"/>
+      <c r="H1137" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I1137" s="3">
+        <v>44454</v>
+      </c>
+      <c r="J1137" s="2">
+        <v>0</v>
+      </c>
+      <c r="K1137" s="3">
+        <v>44440</v>
+      </c>
+      <c r="L1137" s="2">
+        <v>3</v>
+      </c>
+      <c r="AB1137" s="6"/>
+    </row>
+    <row r="1138" spans="1:28" ht="225" x14ac:dyDescent="0.25">
+      <c r="A1138" s="2">
+        <v>1160</v>
+      </c>
+      <c r="B1138" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C1138" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1138" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E1138" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1138" s="2" t="s">
+        <v>1207</v>
+      </c>
+      <c r="G1138" s="2" t="s">
+        <v>1208</v>
+      </c>
+      <c r="H1138" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="I1138" s="3">
+        <v>44460</v>
+      </c>
+      <c r="J1138" s="2">
+        <v>0</v>
+      </c>
+      <c r="K1138" s="3">
+        <v>44440</v>
+      </c>
+      <c r="L1138" s="2">
+        <v>60</v>
+      </c>
+      <c r="AB1138" s="6"/>
+    </row>
+    <row r="1139" spans="1:28" ht="131.25" x14ac:dyDescent="0.25">
+      <c r="A1139" s="2">
+        <v>1161</v>
+      </c>
+      <c r="B1139" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C1139" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D1139" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1139" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1139" s="2" t="s">
+        <v>1207</v>
+      </c>
+      <c r="G1139" s="2" t="s">
+        <v>1209</v>
+      </c>
+      <c r="H1139" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1139" s="3">
+        <v>44460</v>
+      </c>
+      <c r="J1139" s="2">
+        <v>0</v>
+      </c>
+      <c r="K1139" s="3">
+        <v>44440</v>
+      </c>
+      <c r="L1139" s="2">
+        <v>45</v>
+      </c>
+      <c r="AB1139" s="6"/>
+    </row>
+    <row r="1140" spans="1:28" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A1140" s="2">
+        <v>1162</v>
+      </c>
+      <c r="B1140" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C1140" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1140" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E1140" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1140" s="2" t="s">
+        <v>1210</v>
+      </c>
+      <c r="G1140" s="2"/>
+      <c r="H1140" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="I1140" s="3">
+        <v>44466</v>
+      </c>
+      <c r="J1140" s="2">
+        <v>0</v>
+      </c>
+      <c r="K1140" s="3">
+        <v>44470</v>
+      </c>
+      <c r="L1140" s="2">
+        <v>15</v>
+      </c>
+      <c r="AB1140" s="6"/>
+    </row>
+    <row r="1141" spans="1:28" ht="206.25" x14ac:dyDescent="0.25">
+      <c r="A1141" s="2">
+        <v>1163</v>
+      </c>
+      <c r="B1141" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="C1141" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="D1141" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E1141" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1141" s="2" t="s">
+        <v>1207</v>
+      </c>
+      <c r="G1141" s="2" t="s">
+        <v>1211</v>
+      </c>
+      <c r="H1141" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I1141" s="3">
+        <v>44475</v>
+      </c>
+      <c r="J1141" s="2">
+        <v>0</v>
+      </c>
+      <c r="K1141" s="3">
+        <v>44470</v>
+      </c>
+      <c r="L1141" s="2">
+        <v>60</v>
+      </c>
+      <c r="AB1141" s="6"/>
+    </row>
+    <row r="1142" spans="1:28" ht="168.75" x14ac:dyDescent="0.25">
+      <c r="A1142" s="2">
+        <v>1164</v>
+      </c>
+      <c r="B1142" s="2" t="s">
+        <v>812</v>
+      </c>
+      <c r="C1142" s="2" t="s">
+        <v>813</v>
+      </c>
+      <c r="D1142" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E1142" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1142" s="2" t="s">
+        <v>1212</v>
+      </c>
+      <c r="G1142" s="2" t="s">
+        <v>1213</v>
+      </c>
+      <c r="H1142" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I1142" s="3">
+        <v>44484</v>
+      </c>
+      <c r="J1142" s="2">
+        <v>0</v>
+      </c>
+      <c r="K1142" s="3">
+        <v>44470</v>
+      </c>
+      <c r="L1142" s="2">
+        <v>60</v>
+      </c>
+      <c r="AB1142" s="6"/>
+    </row>
+    <row r="1143" spans="1:28" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A1143" s="2">
+        <v>1165</v>
+      </c>
+      <c r="B1143" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1143" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1143" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1143" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1143" s="2" t="s">
+        <v>1207</v>
+      </c>
+      <c r="G1143" s="2" t="s">
+        <v>1214</v>
+      </c>
+      <c r="H1143" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I1143" s="3">
+        <v>44484</v>
+      </c>
+      <c r="J1143" s="2">
+        <v>0</v>
+      </c>
+      <c r="K1143" s="3">
+        <v>44470</v>
+      </c>
+      <c r="L1143" s="2">
+        <v>60</v>
+      </c>
+      <c r="AB1143" s="6"/>
+    </row>
+    <row r="1144" spans="1:28" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A1144" s="2">
+        <v>1166</v>
+      </c>
+      <c r="B1144" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C1144" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1144" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E1144" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1144" s="2" t="s">
+        <v>1207</v>
+      </c>
+      <c r="G1144" s="2" t="s">
+        <v>1214</v>
+      </c>
+      <c r="H1144" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="I1144" s="3">
+        <v>44484</v>
+      </c>
+      <c r="J1144" s="2">
+        <v>0</v>
+      </c>
+      <c r="K1144" s="3">
+        <v>44470</v>
+      </c>
+      <c r="L1144" s="2">
+        <v>60</v>
+      </c>
+      <c r="AB1144" s="6"/>
+    </row>
+    <row r="1145" spans="1:28" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A1145" s="2">
+        <v>1167</v>
+      </c>
+      <c r="B1145" s="2" t="s">
+        <v>1215</v>
+      </c>
+      <c r="C1145" s="2" t="s">
+        <v>998</v>
+      </c>
+      <c r="D1145" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="E1145" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1145" s="2" t="s">
+        <v>1212</v>
+      </c>
+      <c r="G1145" s="2" t="s">
+        <v>1216</v>
+      </c>
+      <c r="H1145" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="I1145" s="3">
+        <v>44484</v>
+      </c>
+      <c r="J1145" s="2">
+        <v>0</v>
+      </c>
+      <c r="K1145" s="3">
+        <v>44470</v>
+      </c>
+      <c r="L1145" s="2">
+        <v>15</v>
+      </c>
+      <c r="AB1145" s="6"/>
+    </row>
+    <row r="1146" spans="1:28" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1146" s="2">
+        <v>1168</v>
+      </c>
+      <c r="B1146" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1146" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1146" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1146" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1146" s="2" t="s">
+        <v>1207</v>
+      </c>
+      <c r="G1146" s="2" t="s">
+        <v>1217</v>
+      </c>
+      <c r="H1146" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1146" s="3">
+        <v>44484</v>
+      </c>
+      <c r="J1146" s="2">
+        <v>0</v>
+      </c>
+      <c r="K1146" s="3">
+        <v>44470</v>
+      </c>
+      <c r="L1146" s="2">
+        <v>30</v>
+      </c>
+      <c r="AB1146" s="6"/>
+    </row>
+    <row r="1147" spans="1:28" ht="93.75" x14ac:dyDescent="0.25">
+      <c r="A1147" s="2">
+        <v>1169</v>
+      </c>
+      <c r="B1147" s="2" t="s">
+        <v>1159</v>
+      </c>
+      <c r="C1147" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D1147" s="2" t="s">
+        <v>1160</v>
+      </c>
+      <c r="E1147" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1147" s="2" t="s">
+        <v>1212</v>
+      </c>
+      <c r="G1147" s="2" t="s">
+        <v>1218</v>
+      </c>
+      <c r="H1147" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1147" s="3">
+        <v>44484</v>
+      </c>
+      <c r="J1147" s="2">
+        <v>0</v>
+      </c>
+      <c r="K1147" s="3">
+        <v>44470</v>
+      </c>
+      <c r="L1147" s="2">
+        <v>30</v>
+      </c>
+      <c r="AB1147" s="6"/>
+    </row>
+    <row r="1148" spans="1:28" ht="112.5" x14ac:dyDescent="0.25">
+      <c r="A1148" s="2">
+        <v>1170</v>
+      </c>
+      <c r="B1148" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C1148" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1148" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E1148" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1148" s="2" t="s">
+        <v>1219</v>
+      </c>
+      <c r="G1148" s="2" t="s">
+        <v>1220</v>
+      </c>
+      <c r="H1148" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1148" s="3">
+        <v>44495</v>
+      </c>
+      <c r="J1148" s="2">
+        <v>0</v>
+      </c>
+      <c r="K1148" s="3">
+        <v>44470</v>
+      </c>
+      <c r="L1148" s="2">
+        <v>30</v>
+      </c>
+      <c r="AB1148" s="6"/>
+    </row>
+    <row r="1149" spans="1:28" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A1149" s="2">
+        <v>1171</v>
+      </c>
+      <c r="B1149" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C1149" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D1149" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1149" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1149" s="2" t="s">
+        <v>1207</v>
+      </c>
+      <c r="G1149" s="2" t="s">
+        <v>1214</v>
+      </c>
+      <c r="H1149" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1149" s="3">
+        <v>44510</v>
+      </c>
+      <c r="J1149" s="2">
+        <v>0</v>
+      </c>
+      <c r="K1149" s="3">
+        <v>44501</v>
+      </c>
+      <c r="L1149" s="2">
+        <v>60</v>
+      </c>
+      <c r="AB1149" s="6"/>
+    </row>
+    <row r="1150" spans="1:28" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A1150" s="2">
+        <v>1172</v>
+      </c>
+      <c r="B1150" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="C1150" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="D1150" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E1150" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1150" s="2" t="s">
+        <v>1207</v>
+      </c>
+      <c r="G1150" s="2" t="s">
+        <v>1214</v>
+      </c>
+      <c r="H1150" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I1150" s="3">
+        <v>44510</v>
+      </c>
+      <c r="J1150" s="2">
+        <v>0</v>
+      </c>
+      <c r="K1150" s="3">
+        <v>44501</v>
+      </c>
+      <c r="L1150" s="2">
+        <v>60</v>
+      </c>
+      <c r="AB1150" s="6"/>
+    </row>
+    <row r="1151" spans="1:28" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A1151" s="2">
+        <v>1173</v>
+      </c>
+      <c r="B1151" s="2" t="s">
+        <v>1221</v>
+      </c>
+      <c r="C1151" s="2" t="s">
+        <v>1222</v>
+      </c>
+      <c r="D1151" s="2" t="s">
+        <v>1223</v>
+      </c>
+      <c r="E1151" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1151" s="2" t="s">
+        <v>1207</v>
+      </c>
+      <c r="G1151" s="2" t="s">
+        <v>1214</v>
+      </c>
+      <c r="H1151" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1151" s="3">
+        <v>44510</v>
+      </c>
+      <c r="J1151" s="2">
+        <v>0</v>
+      </c>
+      <c r="K1151" s="3">
+        <v>44501</v>
+      </c>
+      <c r="L1151" s="2">
+        <v>60</v>
+      </c>
+      <c r="AB1151" s="6"/>
+    </row>
+    <row r="1152" spans="1:28" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A1152" s="2">
+        <v>1174</v>
+      </c>
+      <c r="B1152" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1152" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1152" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1152" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1152" s="2" t="s">
+        <v>1207</v>
+      </c>
+      <c r="G1152" s="2" t="s">
+        <v>1224</v>
+      </c>
+      <c r="H1152" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1152" s="3">
+        <v>44511</v>
+      </c>
+      <c r="J1152" s="2">
+        <v>0</v>
+      </c>
+      <c r="K1152" s="3">
+        <v>44501</v>
+      </c>
+      <c r="L1152" s="2">
+        <v>30</v>
+      </c>
+      <c r="AB1152" s="6"/>
+    </row>
+    <row r="1153" spans="1:28" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A1153" s="2">
+        <v>1175</v>
+      </c>
+      <c r="B1153" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1153" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1153" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1153" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1153" s="2" t="s">
+        <v>1225</v>
+      </c>
+      <c r="G1153" s="2"/>
+      <c r="H1153" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I1153" s="3">
+        <v>44512</v>
+      </c>
+      <c r="J1153" s="2">
+        <v>0</v>
+      </c>
+      <c r="K1153" s="3">
+        <v>44501</v>
+      </c>
+      <c r="L1153" s="2">
+        <v>3</v>
+      </c>
+      <c r="AB1153" s="6"/>
+    </row>
+    <row r="1154" spans="1:28" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A1154" s="2">
+        <v>1176</v>
+      </c>
+      <c r="B1154" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1154" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1154" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1154" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1154" s="2" t="s">
+        <v>1226</v>
+      </c>
+      <c r="G1154" s="2"/>
+      <c r="H1154" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="I1154" s="3">
+        <v>44515</v>
+      </c>
+      <c r="J1154" s="2">
+        <v>0</v>
+      </c>
+      <c r="K1154" s="3">
+        <v>44501</v>
+      </c>
+      <c r="L1154" s="2">
+        <v>15</v>
+      </c>
+      <c r="AB1154" s="6"/>
+    </row>
+    <row r="1155" spans="1:28" ht="93.75" x14ac:dyDescent="0.25">
+      <c r="A1155" s="2">
+        <v>1177</v>
+      </c>
+      <c r="B1155" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C1155" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1155" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E1155" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1155" s="2" t="s">
+        <v>1227</v>
+      </c>
+      <c r="G1155" s="2" t="s">
+        <v>1228</v>
+      </c>
+      <c r="H1155" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="I1155" s="3">
+        <v>44524</v>
+      </c>
+      <c r="J1155" s="2">
+        <v>0</v>
+      </c>
+      <c r="K1155" s="3">
+        <v>44501</v>
+      </c>
+      <c r="L1155" s="2">
+        <v>60</v>
+      </c>
+      <c r="AB1155" s="6"/>
+    </row>
+    <row r="1156" spans="1:28" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A1156" s="2">
+        <v>1178</v>
+      </c>
+      <c r="B1156" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C1156" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="D1156" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E1156" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1156" s="2" t="s">
+        <v>1207</v>
+      </c>
+      <c r="G1156" s="2"/>
+      <c r="H1156" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1156" s="3">
+        <v>44524</v>
+      </c>
+      <c r="J1156" s="2">
+        <v>0</v>
+      </c>
+      <c r="K1156" s="3">
+        <v>44501</v>
+      </c>
+      <c r="L1156" s="2">
+        <v>15</v>
+      </c>
+      <c r="AB1156" s="6"/>
+    </row>
+    <row r="1157" spans="1:28" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A1157" s="2">
+        <v>1179</v>
+      </c>
+      <c r="B1157" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="C1157" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D1157" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="E1157" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1157" s="2" t="s">
+        <v>1207</v>
+      </c>
+      <c r="G1157" s="2"/>
+      <c r="H1157" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1157" s="3">
+        <v>44524</v>
+      </c>
+      <c r="J1157" s="2">
+        <v>0</v>
+      </c>
+      <c r="K1157" s="3">
+        <v>44501</v>
+      </c>
+      <c r="L1157" s="2">
+        <v>15</v>
+      </c>
+      <c r="AB1157" s="6"/>
+    </row>
+    <row r="1158" spans="1:28" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A1158" s="2">
+        <v>1180</v>
+      </c>
+      <c r="B1158" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1158" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1158" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1158" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1158" s="2" t="s">
+        <v>1207</v>
+      </c>
+      <c r="G1158" s="2"/>
+      <c r="H1158" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1158" s="3">
+        <v>44524</v>
+      </c>
+      <c r="J1158" s="2">
+        <v>0</v>
+      </c>
+      <c r="K1158" s="3">
+        <v>44501</v>
+      </c>
+      <c r="L1158" s="2">
+        <v>15</v>
+      </c>
+      <c r="AB1158" s="6"/>
+    </row>
+    <row r="1159" spans="1:28" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A1159" s="2">
+        <v>1181</v>
+      </c>
+      <c r="B1159" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C1159" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1159" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E1159" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1159" s="2" t="s">
+        <v>1207</v>
+      </c>
+      <c r="G1159" s="2"/>
+      <c r="H1159" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1159" s="3">
+        <v>44536</v>
+      </c>
+      <c r="J1159" s="2">
+        <v>0</v>
+      </c>
+      <c r="K1159" s="3">
+        <v>44531</v>
+      </c>
+      <c r="L1159" s="2">
+        <v>15</v>
+      </c>
+      <c r="AB1159" s="6"/>
+    </row>
+    <row r="1160" spans="1:28" ht="262.5" x14ac:dyDescent="0.25">
+      <c r="A1160" s="2">
+        <v>1182</v>
+      </c>
+      <c r="B1160" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C1160" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1160" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E1160" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1160" s="2" t="s">
+        <v>1212</v>
+      </c>
+      <c r="G1160" s="2" t="s">
+        <v>1229</v>
+      </c>
+      <c r="H1160" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="I1160" s="3">
+        <v>44537</v>
+      </c>
+      <c r="J1160" s="2">
+        <v>0</v>
+      </c>
+      <c r="K1160" s="3">
+        <v>44531</v>
+      </c>
+      <c r="L1160" s="2">
+        <v>60</v>
+      </c>
+      <c r="AB1160" s="6"/>
+    </row>
+    <row r="1161" spans="1:28" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A1161" s="2">
+        <v>1183</v>
+      </c>
+      <c r="B1161" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1161" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1161" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1161" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1161" s="2" t="s">
+        <v>1230</v>
+      </c>
+      <c r="G1161" s="2"/>
+      <c r="H1161" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1161" s="3">
+        <v>44537</v>
+      </c>
+      <c r="J1161" s="2">
+        <v>0</v>
+      </c>
+      <c r="K1161" s="3">
+        <v>44531</v>
+      </c>
+      <c r="L1161" s="2">
+        <v>30</v>
+      </c>
+      <c r="AB1161" s="6"/>
+    </row>
+    <row r="1162" spans="1:28" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A1162" s="2">
+        <v>1184</v>
+      </c>
+      <c r="B1162" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1162" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1162" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E1162" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1162" s="2" t="s">
+        <v>1231</v>
+      </c>
+      <c r="G1162" s="2"/>
+      <c r="H1162" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I1162" s="3">
+        <v>44544</v>
+      </c>
+      <c r="J1162" s="2">
+        <v>0</v>
+      </c>
+      <c r="K1162" s="3">
+        <v>44531</v>
+      </c>
+      <c r="L1162" s="2">
+        <v>12</v>
+      </c>
+      <c r="AB1162" s="6"/>
+    </row>
+    <row r="1163" spans="1:28" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A1163" s="2">
+        <v>1185</v>
+      </c>
+      <c r="B1163" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1163" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1163" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1163" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1163" s="2" t="s">
+        <v>1232</v>
+      </c>
+      <c r="G1163" s="2"/>
+      <c r="H1163" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1163" s="3">
+        <v>44545</v>
+      </c>
+      <c r="J1163" s="2">
+        <v>0</v>
+      </c>
+      <c r="K1163" s="3">
+        <v>44531</v>
+      </c>
+      <c r="L1163" s="2">
+        <v>15</v>
+      </c>
+      <c r="AB1163" s="6"/>
+    </row>
+    <row r="1164" spans="1:28" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A1164" s="2">
+        <v>1186</v>
+      </c>
+      <c r="B1164" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="C1164" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D1164" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="E1164" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1164" s="2" t="s">
+        <v>1233</v>
+      </c>
+      <c r="G1164" s="2"/>
+      <c r="H1164" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1164" s="3">
+        <v>44545</v>
+      </c>
+      <c r="J1164" s="2">
+        <v>0</v>
+      </c>
+      <c r="K1164" s="3">
+        <v>44531</v>
+      </c>
+      <c r="L1164" s="2">
+        <v>15</v>
+      </c>
+      <c r="AB1164" s="6"/>
+    </row>
+    <row r="1165" spans="1:28" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A1165" s="2">
+        <v>1187</v>
+      </c>
+      <c r="B1165" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1165" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1165" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1165" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1165" s="2" t="s">
+        <v>1234</v>
+      </c>
+      <c r="G1165" s="2"/>
+      <c r="H1165" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1165" s="3">
+        <v>44557</v>
+      </c>
+      <c r="J1165" s="2">
+        <v>0</v>
+      </c>
+      <c r="K1165" s="3">
+        <v>44562</v>
+      </c>
+      <c r="L1165" s="2">
+        <v>15</v>
+      </c>
+      <c r="M1165" s="3">
+        <v>44593</v>
+      </c>
+      <c r="N1165" s="2">
+        <v>15</v>
+      </c>
+      <c r="O1165" s="3">
+        <v>44621</v>
+      </c>
+      <c r="P1165" s="2">
+        <v>15</v>
+      </c>
+      <c r="AB1165" s="6"/>
+    </row>
+    <row r="1166" spans="1:28" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A1166" s="2">
+        <v>1188</v>
+      </c>
+      <c r="B1166" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1166" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1166" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E1166" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1166" s="2" t="s">
+        <v>1235</v>
+      </c>
+      <c r="G1166" s="2"/>
+      <c r="H1166" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I1166" s="3">
+        <v>44573</v>
+      </c>
+      <c r="J1166" s="2">
+        <v>0</v>
+      </c>
+      <c r="K1166" s="3">
+        <v>44562</v>
+      </c>
+      <c r="L1166" s="2">
+        <v>12</v>
+      </c>
+      <c r="AB1166" s="6"/>
+    </row>
+    <row r="1167" spans="1:28" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A1167" s="2">
+        <v>1189</v>
+      </c>
+      <c r="B1167" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1167" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1167" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1167" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1167" s="2" t="s">
+        <v>1236</v>
+      </c>
+      <c r="G1167" s="2"/>
+      <c r="H1167" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I1167" s="3">
+        <v>44578</v>
+      </c>
+      <c r="J1167" s="2">
+        <v>0</v>
+      </c>
+      <c r="K1167" s="3">
+        <v>44562</v>
+      </c>
+      <c r="L1167" s="2">
+        <v>3</v>
+      </c>
+      <c r="AB1167" s="6"/>
+    </row>
+    <row r="1168" spans="1:28" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A1168" s="2">
+        <v>1190</v>
+      </c>
+      <c r="B1168" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1168" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D1168" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E1168" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1168" s="2" t="s">
+        <v>1207</v>
+      </c>
+      <c r="G1168" s="2"/>
+      <c r="H1168" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="I1168" s="3">
+        <v>44592</v>
+      </c>
+      <c r="J1168" s="2">
+        <v>0</v>
+      </c>
+      <c r="K1168" s="3">
+        <v>44562</v>
+      </c>
+      <c r="L1168" s="2">
+        <v>30</v>
+      </c>
+      <c r="AB1168" s="6"/>
+    </row>
+    <row r="1169" spans="1:28" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A1169" s="2">
+        <v>1191</v>
+      </c>
+      <c r="B1169" s="2" t="s">
+        <v>509</v>
+      </c>
+      <c r="C1169" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D1169" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="E1169" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1169" s="2" t="s">
+        <v>1207</v>
+      </c>
+      <c r="G1169" s="2"/>
+      <c r="H1169" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1169" s="3">
+        <v>44592</v>
+      </c>
+      <c r="J1169" s="2">
+        <v>0</v>
+      </c>
+      <c r="K1169" s="3">
+        <v>44562</v>
+      </c>
+      <c r="L1169" s="2">
+        <v>15</v>
+      </c>
+      <c r="AB1169" s="6"/>
+    </row>
+    <row r="1170" spans="1:28" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A1170" s="2">
+        <v>1192</v>
+      </c>
+      <c r="B1170" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1170" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1170" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1170" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1170" s="2" t="s">
+        <v>1237</v>
+      </c>
+      <c r="G1170" s="2"/>
+      <c r="H1170" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I1170" s="3">
+        <v>44610</v>
+      </c>
+      <c r="J1170" s="2">
+        <v>0</v>
+      </c>
+      <c r="K1170" s="3">
+        <v>44593</v>
+      </c>
+      <c r="L1170" s="2">
+        <v>3</v>
+      </c>
+      <c r="AB1170" s="6"/>
+    </row>
+    <row r="1171" spans="1:28" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A1171" s="2">
+        <v>1193</v>
+      </c>
+      <c r="B1171" s="2" t="s">
+        <v>1238</v>
+      </c>
+      <c r="C1171" s="2" t="s">
+        <v>1239</v>
+      </c>
+      <c r="D1171" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="E1171" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1171" s="2" t="s">
+        <v>1240</v>
+      </c>
+      <c r="G1171" s="2"/>
+      <c r="H1171" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="I1171" s="3">
+        <v>44629</v>
+      </c>
+      <c r="J1171" s="2">
+        <v>0</v>
+      </c>
+      <c r="K1171" s="3">
+        <v>44621</v>
+      </c>
+      <c r="L1171" s="2">
+        <v>10</v>
+      </c>
+      <c r="AB1171" s="6"/>
+    </row>
+    <row r="1172" spans="1:28" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A1172" s="2">
+        <v>1194</v>
+      </c>
+      <c r="B1172" s="2" t="s">
+        <v>1238</v>
+      </c>
+      <c r="C1172" s="2" t="s">
+        <v>1239</v>
+      </c>
+      <c r="D1172" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="E1172" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1172" s="2" t="s">
+        <v>1241</v>
+      </c>
+      <c r="G1172" s="2"/>
+      <c r="H1172" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="I1172" s="3">
+        <v>44629</v>
+      </c>
+      <c r="J1172" s="2">
+        <v>0</v>
+      </c>
+      <c r="K1172" s="3">
+        <v>44621</v>
+      </c>
+      <c r="L1172" s="2">
+        <v>15</v>
+      </c>
+      <c r="M1172" s="3">
+        <v>44652</v>
+      </c>
+      <c r="N1172" s="2">
+        <v>15</v>
+      </c>
+      <c r="AB1172" s="6"/>
+    </row>
+    <row r="1173" spans="1:28" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A1173" s="2">
+        <v>1195</v>
+      </c>
+      <c r="B1173" s="2" t="s">
+        <v>1238</v>
+      </c>
+      <c r="C1173" s="2" t="s">
+        <v>1239</v>
+      </c>
+      <c r="D1173" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="E1173" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1173" s="2" t="s">
+        <v>1242</v>
+      </c>
+      <c r="G1173" s="2"/>
+      <c r="H1173" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="I1173" s="3">
+        <v>44629</v>
+      </c>
+      <c r="J1173" s="2">
+        <v>0</v>
+      </c>
+      <c r="K1173" s="3">
+        <v>44621</v>
+      </c>
+      <c r="L1173" s="2">
+        <v>10</v>
+      </c>
+      <c r="AB1173" s="6"/>
+    </row>
+    <row r="1174" spans="1:28" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A1174" s="2">
+        <v>1196</v>
+      </c>
+      <c r="B1174" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1174" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1174" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1174" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1174" s="2" t="s">
+        <v>1243</v>
+      </c>
+      <c r="G1174" s="2"/>
+      <c r="H1174" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I1174" s="3">
+        <v>44638</v>
+      </c>
+      <c r="J1174" s="2">
+        <v>0</v>
+      </c>
+      <c r="K1174" s="3">
+        <v>44621</v>
+      </c>
+      <c r="L1174" s="2">
+        <v>3</v>
+      </c>
+      <c r="AB1174" s="6"/>
+    </row>
+    <row r="1175" spans="1:28" ht="112.5" x14ac:dyDescent="0.25">
+      <c r="A1175" s="2">
+        <v>1197</v>
+      </c>
+      <c r="B1175" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C1175" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1175" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E1175" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1175" s="2" t="s">
+        <v>1244</v>
+      </c>
+      <c r="G1175" s="2"/>
+      <c r="H1175" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1175" s="3">
+        <v>44648</v>
+      </c>
+      <c r="J1175" s="2">
+        <v>0</v>
+      </c>
+      <c r="K1175" s="3">
+        <v>44621</v>
+      </c>
+      <c r="L1175" s="2">
+        <v>15</v>
+      </c>
+      <c r="AB1175" s="6"/>
+    </row>
+    <row r="1176" spans="1:28" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A1176" s="2">
+        <v>1198</v>
+      </c>
+      <c r="B1176" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1176" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1176" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1176" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1176" s="2" t="s">
+        <v>1245</v>
+      </c>
+      <c r="G1176" s="2"/>
+      <c r="H1176" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1176" s="3">
+        <v>44666</v>
+      </c>
+      <c r="J1176" s="2">
+        <v>0</v>
+      </c>
+      <c r="K1176" s="3">
+        <v>44652</v>
+      </c>
+      <c r="L1176" s="2">
+        <v>15</v>
+      </c>
+      <c r="AB1176" s="6"/>
+    </row>
+    <row r="1177" spans="1:28" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A1177" s="2">
+        <v>1199</v>
+      </c>
+      <c r="B1177" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1177" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1177" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1177" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1177" s="2" t="s">
+        <v>1246</v>
+      </c>
+      <c r="G1177" s="2"/>
+      <c r="H1177" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I1177" s="3">
+        <v>44669</v>
+      </c>
+      <c r="J1177" s="2">
+        <v>0</v>
+      </c>
+      <c r="K1177" s="3">
+        <v>44652</v>
+      </c>
+      <c r="L1177" s="2">
+        <v>3</v>
+      </c>
+      <c r="AB1177" s="6"/>
+    </row>
+    <row r="1178" spans="1:28" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A1178" s="2">
+        <v>1200</v>
+      </c>
+      <c r="B1178" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1178" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1178" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1178" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1178" s="2" t="s">
+        <v>1247</v>
+      </c>
+      <c r="G1178" s="2"/>
+      <c r="H1178" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I1178" s="3">
+        <v>44694</v>
+      </c>
+      <c r="J1178" s="2">
+        <v>0</v>
+      </c>
+      <c r="K1178" s="3">
+        <v>44682</v>
+      </c>
+      <c r="L1178" s="2">
+        <v>3</v>
+      </c>
+      <c r="AB1178" s="6"/>
+    </row>
+    <row r="1179" spans="1:28" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1179" s="2">
+        <v>1201</v>
+      </c>
+      <c r="B1179" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1179" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1179" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1179" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1179" s="2" t="s">
+        <v>1248</v>
+      </c>
+      <c r="G1179" s="2"/>
+      <c r="H1179" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I1179" s="3">
+        <v>44697</v>
+      </c>
+      <c r="J1179" s="2">
+        <v>0</v>
+      </c>
+      <c r="K1179" s="3">
+        <v>44682</v>
+      </c>
+      <c r="L1179" s="2">
+        <v>15</v>
+      </c>
+      <c r="AB1179" s="6"/>
+    </row>
+    <row r="1180" spans="1:28" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A1180" s="2">
+        <v>1202</v>
+      </c>
+      <c r="B1180" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1180" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1180" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1180" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1180" s="2" t="s">
+        <v>1249</v>
+      </c>
+      <c r="G1180" s="2"/>
+      <c r="H1180" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1180" s="3">
+        <v>44697</v>
+      </c>
+      <c r="J1180" s="2">
+        <v>0</v>
+      </c>
+      <c r="K1180" s="3">
+        <v>44682</v>
+      </c>
+      <c r="L1180" s="2">
+        <v>15</v>
+      </c>
+      <c r="M1180" s="3">
+        <v>44713</v>
+      </c>
+      <c r="N1180" s="2">
+        <v>15</v>
+      </c>
+      <c r="O1180" s="3">
+        <v>44774</v>
+      </c>
+      <c r="P1180" s="2">
+        <v>15</v>
+      </c>
+      <c r="AB1180" s="6"/>
+    </row>
+    <row r="1181" spans="1:28" ht="225" x14ac:dyDescent="0.25">
+      <c r="A1181" s="2">
+        <v>1203</v>
+      </c>
+      <c r="B1181" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C1181" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1181" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E1181" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1181" s="2" t="s">
+        <v>1250</v>
+      </c>
+      <c r="G1181" s="2"/>
+      <c r="H1181" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="I1181" s="3">
+        <v>44699</v>
+      </c>
+      <c r="J1181" s="2">
+        <v>0</v>
+      </c>
+      <c r="K1181" s="3">
+        <v>44682</v>
+      </c>
+      <c r="L1181" s="2">
+        <v>60</v>
+      </c>
+      <c r="AB1181" s="6"/>
+    </row>
+    <row r="1182" spans="1:28" ht="93.75" x14ac:dyDescent="0.25">
+      <c r="A1182" s="2">
+        <v>1204</v>
+      </c>
+      <c r="B1182" s="2" t="s">
+        <v>1221</v>
+      </c>
+      <c r="C1182" s="2" t="s">
+        <v>1222</v>
+      </c>
+      <c r="D1182" s="2" t="s">
+        <v>1223</v>
+      </c>
+      <c r="E1182" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1182" s="2" t="s">
+        <v>1251</v>
+      </c>
+      <c r="G1182" s="2" t="s">
+        <v>1252</v>
+      </c>
+      <c r="H1182" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1182" s="3">
+        <v>44699</v>
+      </c>
+      <c r="J1182" s="2">
+        <v>0</v>
+      </c>
+      <c r="K1182" s="3">
+        <v>44682</v>
+      </c>
+      <c r="L1182" s="2">
+        <v>15</v>
+      </c>
+      <c r="AB1182" s="6"/>
+    </row>
+    <row r="1183" spans="1:28" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A1183" s="2">
+        <v>1205</v>
+      </c>
+      <c r="B1183" s="2" t="s">
+        <v>1221</v>
+      </c>
+      <c r="C1183" s="2" t="s">
+        <v>1222</v>
+      </c>
+      <c r="D1183" s="2" t="s">
+        <v>1223</v>
+      </c>
+      <c r="E1183" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1183" s="2" t="s">
+        <v>1253</v>
+      </c>
+      <c r="G1183" s="2"/>
+      <c r="H1183" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1183" s="3">
+        <v>44699</v>
+      </c>
+      <c r="J1183" s="2">
+        <v>0</v>
+      </c>
+      <c r="K1183" s="3">
+        <v>44682</v>
+      </c>
+      <c r="L1183" s="2">
+        <v>15</v>
+      </c>
+      <c r="AB1183" s="6"/>
+    </row>
+    <row r="1184" spans="1:28" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A1184" s="2">
+        <v>1206</v>
+      </c>
+      <c r="B1184" s="2" t="s">
+        <v>1254</v>
+      </c>
+      <c r="C1184" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D1184" s="2" t="s">
+        <v>1255</v>
+      </c>
+      <c r="E1184" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1184" s="2" t="s">
+        <v>1256</v>
+      </c>
+      <c r="G1184" s="2"/>
+      <c r="H1184" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1184" s="3">
+        <v>44707</v>
+      </c>
+      <c r="J1184" s="2">
+        <v>0</v>
+      </c>
+      <c r="K1184" s="3">
+        <v>44682</v>
+      </c>
+      <c r="L1184" s="2">
+        <v>30</v>
+      </c>
+      <c r="AB1184" s="6"/>
+    </row>
+    <row r="1185" spans="1:28" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A1185" s="2">
+        <v>1207</v>
+      </c>
+      <c r="B1185" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1185" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1185" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1185" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1185" s="2" t="s">
+        <v>1257</v>
+      </c>
+      <c r="G1185" s="2"/>
+      <c r="H1185" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1185" s="3">
+        <v>44810</v>
+      </c>
+      <c r="J1185" s="2">
+        <v>0</v>
+      </c>
+      <c r="K1185" s="3">
+        <v>44805</v>
+      </c>
+      <c r="L1185" s="2">
+        <v>2000</v>
+      </c>
+      <c r="M1185" s="3">
+        <v>44835</v>
+      </c>
+      <c r="N1185" s="2">
+        <v>2000</v>
+      </c>
+      <c r="O1185" s="3">
+        <v>44866</v>
+      </c>
+      <c r="P1185" s="2">
+        <v>2000</v>
+      </c>
+      <c r="AB1185" s="6"/>
+    </row>
+    <row r="1186" spans="1:28" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A1186" s="2">
+        <v>1208</v>
+      </c>
+      <c r="B1186" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C1186" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1186" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E1186" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1186" s="2" t="s">
+        <v>1258</v>
+      </c>
+      <c r="G1186" s="2"/>
+      <c r="H1186" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="I1186" s="3">
+        <v>44825</v>
+      </c>
+      <c r="J1186" s="2">
+        <v>0</v>
+      </c>
+      <c r="K1186" s="3">
+        <v>44805</v>
+      </c>
+      <c r="L1186" s="2">
+        <v>2000</v>
+      </c>
+      <c r="AB1186" s="6"/>
+    </row>
+    <row r="1187" spans="1:28" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A1187" s="2">
+        <v>1209</v>
+      </c>
+      <c r="B1187" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C1187" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1187" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E1187" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1187" s="2" t="s">
+        <v>1259</v>
+      </c>
+      <c r="G1187" s="2"/>
+      <c r="H1187" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="I1187" s="3">
+        <v>44825</v>
+      </c>
+      <c r="J1187" s="2">
+        <v>0</v>
+      </c>
+      <c r="K1187" s="3">
+        <v>44805</v>
+      </c>
+      <c r="L1187" s="2">
+        <v>2000</v>
+      </c>
+      <c r="AB1187" s="6"/>
+    </row>
+    <row r="1188" spans="1:28" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A1188" s="2">
+        <v>1210</v>
+      </c>
+      <c r="B1188" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C1188" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1188" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E1188" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1188" s="2" t="s">
+        <v>1260</v>
+      </c>
+      <c r="G1188" s="2"/>
+      <c r="H1188" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="I1188" s="3">
+        <v>44825</v>
+      </c>
+      <c r="J1188" s="2">
+        <v>0</v>
+      </c>
+      <c r="K1188" s="3">
+        <v>44805</v>
+      </c>
+      <c r="L1188" s="2">
+        <v>2000</v>
+      </c>
+      <c r="AB1188" s="6"/>
+    </row>
+    <row r="1189" spans="1:28" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A1189" s="2">
+        <v>1211</v>
+      </c>
+      <c r="B1189" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C1189" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1189" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E1189" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1189" s="2" t="s">
+        <v>1261</v>
+      </c>
+      <c r="G1189" s="2"/>
+      <c r="H1189" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="I1189" s="3">
+        <v>44825</v>
+      </c>
+      <c r="J1189" s="2">
+        <v>0</v>
+      </c>
+      <c r="K1189" s="3">
+        <v>44805</v>
+      </c>
+      <c r="L1189" s="2">
+        <v>2000</v>
+      </c>
+      <c r="AB1189" s="6"/>
+    </row>
+    <row r="1190" spans="1:28" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A1190" s="2">
+        <v>1212</v>
+      </c>
+      <c r="B1190" s="2" t="s">
+        <v>1254</v>
+      </c>
+      <c r="C1190" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D1190" s="2" t="s">
+        <v>1255</v>
+      </c>
+      <c r="E1190" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1190" s="2" t="s">
+        <v>1262</v>
+      </c>
+      <c r="G1190" s="2"/>
+      <c r="H1190" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1190" s="3">
+        <v>44825</v>
+      </c>
+      <c r="J1190" s="2">
+        <v>0</v>
+      </c>
+      <c r="K1190" s="3">
+        <v>44805</v>
+      </c>
+      <c r="L1190" s="2">
+        <v>2000</v>
+      </c>
+      <c r="M1190" s="3">
+        <v>44835</v>
+      </c>
+      <c r="N1190" s="2">
+        <v>2000</v>
+      </c>
+      <c r="O1190" s="3">
+        <v>44866</v>
+      </c>
+      <c r="P1190" s="2">
+        <v>2000</v>
+      </c>
+      <c r="AB1190" s="6"/>
+    </row>
+    <row r="1191" spans="1:28" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A1191" s="2">
+        <v>1213</v>
+      </c>
+      <c r="B1191" s="2" t="s">
+        <v>1221</v>
+      </c>
+      <c r="C1191" s="2" t="s">
+        <v>1222</v>
+      </c>
+      <c r="D1191" s="2" t="s">
+        <v>1223</v>
+      </c>
+      <c r="E1191" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1191" s="2" t="s">
+        <v>1263</v>
+      </c>
+      <c r="G1191" s="2"/>
+      <c r="H1191" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1191" s="3">
+        <v>44839</v>
+      </c>
+      <c r="J1191" s="2">
+        <v>0</v>
+      </c>
+      <c r="K1191" s="3">
+        <v>44835</v>
+      </c>
+      <c r="L1191" s="2">
+        <v>2000</v>
+      </c>
+      <c r="AB1191" s="6"/>
+    </row>
+    <row r="1192" spans="1:28" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A1192" s="2">
+        <v>1214</v>
+      </c>
+      <c r="B1192" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1192" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1192" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1192" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1192" s="2" t="s">
+        <v>1264</v>
+      </c>
+      <c r="G1192" s="2"/>
+      <c r="H1192" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I1192" s="3">
+        <v>44848</v>
+      </c>
+      <c r="J1192" s="2">
+        <v>0</v>
+      </c>
+      <c r="K1192" s="3">
+        <v>44835</v>
+      </c>
+      <c r="L1192" s="2">
+        <v>500</v>
+      </c>
+      <c r="AB1192" s="6"/>
+    </row>
+    <row r="1193" spans="1:28" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1193" s="2">
+        <v>1215</v>
+      </c>
+      <c r="B1193" s="2" t="s">
+        <v>762</v>
+      </c>
+      <c r="C1193" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D1193" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="E1193" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1193" s="2" t="s">
+        <v>1265</v>
+      </c>
+      <c r="G1193" s="2"/>
+      <c r="H1193" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="I1193" s="3">
+        <v>44874</v>
+      </c>
+      <c r="J1193" s="2">
+        <v>0</v>
+      </c>
+      <c r="K1193" s="3">
+        <v>44866</v>
+      </c>
+      <c r="L1193" s="2">
+        <v>2000</v>
+      </c>
+      <c r="AB1193" s="6"/>
+    </row>
+    <row r="1194" spans="1:28" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A1194" s="2">
+        <v>1216</v>
+      </c>
+      <c r="B1194" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1194" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1194" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1194" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1194" s="2" t="s">
+        <v>1266</v>
+      </c>
+      <c r="G1194" s="2"/>
+      <c r="H1194" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I1194" s="3">
+        <v>44880</v>
+      </c>
+      <c r="J1194" s="2">
+        <v>0</v>
+      </c>
+      <c r="K1194" s="3">
+        <v>44866</v>
+      </c>
+      <c r="L1194" s="2">
+        <v>500</v>
+      </c>
+      <c r="AB1194" s="6"/>
+    </row>
+    <row r="1195" spans="1:28" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A1195" s="2">
+        <v>1217</v>
+      </c>
+      <c r="B1195" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1195" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1195" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1195" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1195" s="2" t="s">
+        <v>1267</v>
+      </c>
+      <c r="G1195" s="2"/>
+      <c r="H1195" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1195" s="3">
+        <v>44880</v>
+      </c>
+      <c r="J1195" s="2">
+        <v>0</v>
+      </c>
+      <c r="K1195" s="3">
+        <v>44866</v>
+      </c>
+      <c r="L1195" s="2">
+        <v>10000</v>
+      </c>
+      <c r="AB1195" s="6"/>
+    </row>
+    <row r="1196" spans="1:28" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A1196" s="2">
+        <v>1218</v>
+      </c>
+      <c r="B1196" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1196" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1196" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1196" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1196" s="2" t="s">
+        <v>1268</v>
+      </c>
+      <c r="G1196" s="2"/>
+      <c r="H1196" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1196" s="3">
+        <v>44881</v>
+      </c>
+      <c r="J1196" s="2">
+        <v>0</v>
+      </c>
+      <c r="K1196" s="3">
+        <v>44896</v>
+      </c>
+      <c r="L1196" s="2">
+        <v>2000</v>
+      </c>
+      <c r="M1196" s="3">
+        <v>44927</v>
+      </c>
+      <c r="N1196" s="2">
+        <v>2000</v>
+      </c>
+      <c r="O1196" s="3">
+        <v>44958</v>
+      </c>
+      <c r="P1196" s="2">
+        <v>2000</v>
+      </c>
+      <c r="Q1196" s="3">
+        <v>44986</v>
+      </c>
+      <c r="R1196" s="2">
+        <v>2000</v>
+      </c>
+      <c r="AB1196" s="6"/>
+    </row>
+    <row r="1197" spans="1:28" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A1197" s="2">
+        <v>1219</v>
+      </c>
+      <c r="B1197" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1197" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1197" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1197" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1197" s="2" t="s">
+        <v>1269</v>
+      </c>
+      <c r="G1197" s="2"/>
+      <c r="H1197" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I1197" s="3">
+        <v>44881</v>
+      </c>
+      <c r="J1197" s="2">
+        <v>0</v>
+      </c>
+      <c r="K1197" s="3">
+        <v>44866</v>
+      </c>
+      <c r="L1197" s="2">
+        <v>2000</v>
+      </c>
+      <c r="AB1197" s="6"/>
+    </row>
+    <row r="1198" spans="1:28" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A1198" s="2">
+        <v>1220</v>
+      </c>
+      <c r="B1198" s="2" t="s">
+        <v>1221</v>
+      </c>
+      <c r="C1198" s="2" t="s">
+        <v>1222</v>
+      </c>
+      <c r="D1198" s="2" t="s">
+        <v>1223</v>
+      </c>
+      <c r="E1198" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1198" s="2" t="s">
+        <v>1270</v>
+      </c>
+      <c r="G1198" s="2"/>
+      <c r="H1198" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1198" s="3">
+        <v>44893</v>
+      </c>
+      <c r="J1198" s="2">
+        <v>0</v>
+      </c>
+      <c r="K1198" s="3">
+        <v>44866</v>
+      </c>
+      <c r="L1198" s="2">
+        <v>2000</v>
+      </c>
+      <c r="AB1198" s="6"/>
+    </row>
+    <row r="1199" spans="1:28" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A1199" s="2">
+        <v>1221</v>
+      </c>
+      <c r="B1199" s="2" t="s">
+        <v>1221</v>
+      </c>
+      <c r="C1199" s="2" t="s">
+        <v>1222</v>
+      </c>
+      <c r="D1199" s="2" t="s">
+        <v>1223</v>
+      </c>
+      <c r="E1199" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1199" s="2" t="s">
+        <v>1271</v>
+      </c>
+      <c r="G1199" s="2"/>
+      <c r="H1199" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1199" s="3">
+        <v>44902</v>
+      </c>
+      <c r="J1199" s="2">
+        <v>0</v>
+      </c>
+      <c r="K1199" s="3">
+        <v>44896</v>
+      </c>
+      <c r="L1199" s="2">
+        <v>2000</v>
+      </c>
+      <c r="AB1199" s="6"/>
+    </row>
+    <row r="1200" spans="1:28" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A1200" s="2">
+        <v>1222</v>
+      </c>
+      <c r="B1200" s="2" t="s">
+        <v>1272</v>
+      </c>
+      <c r="C1200" s="2" t="s">
+        <v>1273</v>
+      </c>
+      <c r="D1200" s="2" t="s">
+        <v>1274</v>
+      </c>
+      <c r="E1200" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1200" s="2" t="s">
+        <v>1275</v>
+      </c>
+      <c r="G1200" s="2"/>
+      <c r="H1200" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1200" s="3">
+        <v>44902</v>
+      </c>
+      <c r="J1200" s="2">
+        <v>0</v>
+      </c>
+      <c r="K1200" s="3">
+        <v>44896</v>
+      </c>
+      <c r="L1200" s="2">
+        <v>2000</v>
+      </c>
+      <c r="AB1200" s="6"/>
+    </row>
+    <row r="1201" spans="1:28" ht="75" x14ac:dyDescent="0.25">
+      <c r="A1201" s="2">
+        <v>1224</v>
+      </c>
+      <c r="B1201" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1201" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1201" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1201" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1201" s="2" t="s">
+        <v>1276</v>
+      </c>
+      <c r="G1201" s="2"/>
+      <c r="H1201" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I1201" s="3">
+        <v>44905</v>
+      </c>
+      <c r="J1201" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB1201" s="6"/>
+    </row>
+    <row r="1202" spans="1:28" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A1202" s="2">
+        <v>1225</v>
+      </c>
+      <c r="B1202" s="2" t="s">
+        <v>1238</v>
+      </c>
+      <c r="C1202" s="2" t="s">
+        <v>1239</v>
+      </c>
+      <c r="D1202" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="E1202" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1202" s="2" t="s">
+        <v>1277</v>
+      </c>
+      <c r="G1202" s="2"/>
+      <c r="H1202" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="I1202" s="3">
+        <v>44907</v>
+      </c>
+      <c r="J1202" s="2">
+        <v>0</v>
+      </c>
+      <c r="K1202" s="3">
+        <v>44896</v>
+      </c>
+      <c r="L1202" s="2">
+        <v>2000</v>
+      </c>
+      <c r="AB1202" s="6"/>
+    </row>
+    <row r="1203" spans="1:28" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A1203" s="2">
+        <v>1226</v>
+      </c>
+      <c r="B1203" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="C1203" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="D1203" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1203" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1203" s="2" t="s">
+        <v>1278</v>
+      </c>
+      <c r="G1203" s="2"/>
+      <c r="H1203" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1203" s="3">
+        <v>44907</v>
+      </c>
+      <c r="J1203" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB1203" s="6"/>
+    </row>
+    <row r="1204" spans="1:28" ht="131.25" x14ac:dyDescent="0.25">
+      <c r="A1204" s="2">
+        <v>1227</v>
+      </c>
+      <c r="B1204" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1204" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1204" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1204" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1204" s="2" t="s">
+        <v>1279</v>
+      </c>
+      <c r="G1204" s="2"/>
+      <c r="H1204" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I1204" s="3">
+        <v>44909</v>
+      </c>
+      <c r="J1204" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB1204" s="6"/>
+    </row>
+    <row r="1205" spans="1:28" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A1205" s="2">
+        <v>1228</v>
+      </c>
+      <c r="B1205" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="C1205" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="D1205" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1205" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1205" s="2" t="s">
+        <v>1280</v>
+      </c>
+      <c r="G1205" s="2"/>
+      <c r="H1205" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1205" s="3">
+        <v>44918</v>
+      </c>
+      <c r="J1205" s="2">
+        <v>0</v>
+      </c>
+      <c r="K1205" s="7"/>
+      <c r="L1205" s="7"/>
+      <c r="M1205" s="7"/>
+      <c r="N1205" s="7"/>
+      <c r="O1205" s="7"/>
+      <c r="P1205" s="7"/>
+      <c r="Q1205" s="7"/>
+      <c r="R1205" s="7"/>
+      <c r="S1205" s="7"/>
+      <c r="T1205" s="7"/>
+      <c r="U1205" s="7"/>
+      <c r="V1205" s="7"/>
+      <c r="W1205" s="7"/>
+      <c r="X1205" s="7"/>
+      <c r="Y1205" s="7"/>
+      <c r="Z1205" s="7"/>
+      <c r="AA1205" s="7"/>
+      <c r="AB1205" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
